--- a/medicine/Œil et vue/Muscles_oculomoteurs/Muscles_oculomoteurs.xlsx
+++ b/medicine/Œil et vue/Muscles_oculomoteurs/Muscles_oculomoteurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle muscles oculomoteurs les six muscles responsables des mouvements de l'œil dans l'orbite, à savoir les muscles :
 droit supérieur (lat. rectus superior) ;
@@ -523,32 +535,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Muscle droit médial (musculus rectus medialis)
-innervé par le nerf oculaire commun (IIIe paire) ;
+          <t>Muscle droit médial (musculus rectus medialis)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>innervé par le nerf oculaire commun (IIIe paire) ;
 adducteur du globe oculaire, porte la cornée en dedans ;
 insertion postérieure commune aux 4 muscles droits de l'œil sur l'anneau tendineux commun ;
-insertion antérieure sur la partie interne de la sclère (à 5 mm de l'iris).
-Muscle droit inférieur (musculus rectus inferior)
-innervé le nerf oculaire commun (IIIe paire) ;
-abaisse le regard vers le bas et le dehors (fait une excyclotorsion) ;
-insertion postérieure anneau tendineux commun au sommet de l'orbite ;
-insertion antérieure sur la partie antéro-inférieure de la sclère (à 6 mm de la cornée).
-Muscle droit supérieur (musculus rectus superior)
-innervé par le nerf oculaire commun (IIIe paire) ;
-élève le regard vers le haut et en dedans (fait une incyclotorsion) ;
-insertion postérieure commune aux 4 muscles droits de l'œil sur l'anneau tendineux commun ;
-insertion antérieure sur la partie antéro-supérieure de la sclère à 8 mm de la cornée.
-Muscle droit latéral (musculus rectus lateralis)
-innervé par le nerf abducens (VIe paire) ;
-abducteur, permet un mouvement vers l'extérieur du globe oculaire (mouvement d'abduction) ;
-insertion postérieure commune aux 4 muscles droits de l'œil sur l'anneau tendineux commun (le tendon de Zinn) ;
-insertion antérieure sur la partie externe de la sclère à 7 mm de la cornée.
-Muscle oblique supérieur (musculus obliquus superior)
-innervé par le nerf pathétique (ou trochléaire) (IVe paire) ;
-abaisse la cornée, porte l'œil en bas et en dedans.
-Muscle oblique inférieur (musculus obliquus inferior)
-innervé par le nerf oculaire commun (IIIe paire) ;
-élève la cornée, avec excyclotorsion du globe oculaire, porte l’œil en haut et en dehors.</t>
+insertion antérieure sur la partie interne de la sclère (à 5 mm de l'iris).</t>
         </is>
       </c>
     </row>
@@ -573,10 +569,203 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Muscle droit inférieur (musculus rectus inferior)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>innervé le nerf oculaire commun (IIIe paire) ;
+abaisse le regard vers le bas et le dehors (fait une excyclotorsion) ;
+insertion postérieure anneau tendineux commun au sommet de l'orbite ;
+insertion antérieure sur la partie antéro-inférieure de la sclère (à 6 mm de la cornée).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Muscle droit supérieur (musculus rectus superior)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>innervé par le nerf oculaire commun (IIIe paire) ;
+élève le regard vers le haut et en dedans (fait une incyclotorsion) ;
+insertion postérieure commune aux 4 muscles droits de l'œil sur l'anneau tendineux commun ;
+insertion antérieure sur la partie antéro-supérieure de la sclère à 8 mm de la cornée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Muscle droit latéral (musculus rectus lateralis)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>innervé par le nerf abducens (VIe paire) ;
+abducteur, permet un mouvement vers l'extérieur du globe oculaire (mouvement d'abduction) ;
+insertion postérieure commune aux 4 muscles droits de l'œil sur l'anneau tendineux commun (le tendon de Zinn) ;
+insertion antérieure sur la partie externe de la sclère à 7 mm de la cornée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Muscle oblique supérieur (musculus obliquus superior)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>innervé par le nerf pathétique (ou trochléaire) (IVe paire) ;
+abaisse la cornée, porte l'œil en bas et en dedans.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Muscle oblique inférieur (musculus obliquus inferior)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>innervé par le nerf oculaire commun (IIIe paire) ;
+élève la cornée, avec excyclotorsion du globe oculaire, porte l’œil en haut et en dehors.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Insertion sur la sclère : spirale de Tillaux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Les quatre muscles droits s'insèrent sur la sclère à des distances variables du bord de l'iris, comme suit :
 Ainsi, en observant l'œil du droit interne vers le droit supérieur, la distance à l'iris des insertions musculaires croît d'environ 1 mm par quart de tour, en sorte que la ligne joignant les quatre insertions forme une sorte de spirale d'Archimède sur la surface oculaire : c'est la spirale de Tillaux.
@@ -584,31 +773,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Muscles_oculomoteurs</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Insertions au fond de l'orbite : le tendon de Zinn</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">À l'exception du petit oblique, les insertions des muscles oculomoteurs se font à l'aide une structure tendineuse adhérant au fond de l'orbite et dénommée tendon (ou anneau) de Zinn.
 Ce tendon entoure en quelque sorte le nerf optique et prolonge le trou optique pour laisser passer le nerf optique. Il sépare également la fissure orbitale.
@@ -616,31 +807,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Muscles_oculomoteurs</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Spécificités des muscles oculomoteurs</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les muscles oculomoteurs sont des muscles squelettiques, mais ils possèdent des caractéristiques hors du commun, dont le tableau suivant permettra de se faire une idée.
 Autrement dit, par comparaison avec un muscle de l'appareil moteur, les muscles oculomoteurs apparaissent de 10 à 100 fois mieux innervés ; cette innervation est réalisée avec des neurones ayant une fréquence quatre fois supérieure ; les muscles sont mobilisables sur des intervalles dix fois moindres, et présentent deux fois plus de types de fibres musculaires différentes.
@@ -650,31 +843,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Muscles_oculomoteurs</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Œil et vue/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Œil et vue/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscles_oculomoteurs</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Actions</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">L'action des muscles oculomoteurs est celle de trois paires de muscles antagonistes :
 muscles droit supérieur - droit inférieur ;
